--- a/data/income_statement/2digits/size/16_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/16_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,290 +841,330 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>401261.31969</v>
+        <v>432836.75508</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>394328.42793</v>
+        <v>437366.3516800001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>436046.31926</v>
+        <v>486839.71969</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>419431.57445</v>
+        <v>472055.12459</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>375631.38534</v>
+        <v>432998.90314</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>373646.13348</v>
+        <v>458056.01924</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>373954.06406</v>
+        <v>469998.69298</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>379405.1662</v>
+        <v>486674.73192</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>377022.12215</v>
+        <v>483872.57128</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1075197.99809</v>
+        <v>1241849.83592</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1013080.33789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1295722.13451</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1457084.423</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>381824.896</v>
+        <v>412208.31763</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>379622.16858</v>
+        <v>419054.27303</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>414263.10441</v>
+        <v>460789.65385</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>403304.8740299999</v>
+        <v>453607.2755</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>364865.79135</v>
+        <v>419559.70313</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>352084.25462</v>
+        <v>433207.58799</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>351663.87796</v>
+        <v>442581.23802</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>355651.1186</v>
+        <v>456144.25012</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>347559.74496</v>
+        <v>446748.75976</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1002419.40737</v>
+        <v>1158936.35795</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>921963.26912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1182855.82679</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1334275.316</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>16328.90684</v>
+        <v>17113.63031</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>11366.27904</v>
+        <v>13799.14291</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>18743.9903</v>
+        <v>21450.47049</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>12406.25277</v>
+        <v>13360.46176</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8112.650769999999</v>
+        <v>9881.096129999998</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>19447.34773</v>
+        <v>21101.95935</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>20133.28675</v>
+        <v>23772.49082</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>21643.64359</v>
+        <v>25561.29179</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>25391.4238</v>
+        <v>29100.02921</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>59336.13623</v>
+        <v>65041.75892</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>78637.93774000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>95202.54246000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>96243.988</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3107.51685</v>
+        <v>3514.80714</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3339.98031</v>
+        <v>4512.93574</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3039.22455</v>
+        <v>4599.59535</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3720.447650000001</v>
+        <v>5087.38733</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2652.94322</v>
+        <v>3558.10388</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2114.53113</v>
+        <v>3746.4719</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2156.89935</v>
+        <v>3644.96414</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2110.40401</v>
+        <v>4969.190009999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4070.95339</v>
+        <v>8023.782310000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>13442.45449</v>
+        <v>17871.71905</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>12479.13103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17663.76526</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>26565.119</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1173.10123</v>
+        <v>1419.77306</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1474.46045</v>
+        <v>1687.87797</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2594.77812</v>
+        <v>2682.83687</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1574.37157</v>
+        <v>1704.83419</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1023.86669</v>
+        <v>1164.20374</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>877.13416</v>
+        <v>1470.00612</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1631.68961</v>
+        <v>2036.36486</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>761.80154</v>
+        <v>1280.4034</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1131.89576</v>
+        <v>1540.70777</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2552.17375</v>
+        <v>3113.38322</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5545.79452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6723.08239</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>13228.17</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>882.8054100000001</v>
+        <v>1091.69587</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1177.12729</v>
+        <v>1382.02876</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1512.99162</v>
+        <v>1587.83608</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1366.56951</v>
+        <v>1477.2718</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>982.02061</v>
+        <v>1121.81158</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>794.06078</v>
+        <v>1286.35589</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1583.07958</v>
+        <v>1937.82341</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>666.0213299999999</v>
+        <v>1149.81917</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>806.57398</v>
+        <v>1204.70791</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2387.25912</v>
+        <v>2931.96009</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4372.32305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5934.178059999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>12427.563</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>276.10448</v>
+        <v>313.79565</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>277.20579</v>
+        <v>285.72184</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1053.56024</v>
+        <v>1066.77453</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>184.59167</v>
+        <v>202.44946</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>25.3089</v>
+        <v>25.85498</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>76.99587</v>
+        <v>165.46218</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>40.82467</v>
+        <v>81.52795</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>69.84069000000001</v>
+        <v>93.33916000000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>310.92314</v>
+        <v>316.84514</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>131.70637</v>
+        <v>134.34787</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>252.21936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>295.13639</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>470.096</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>14.19134</v>
+        <v>14.28154</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>20.12737</v>
@@ -1232,361 +1173,406 @@
         <v>28.22626</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>23.21039</v>
+        <v>25.11293</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>16.53718</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6.07751</v>
+        <v>18.18805</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7.78536</v>
+        <v>17.0135</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>25.93952</v>
+        <v>37.24507</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>14.39864</v>
+        <v>19.15472</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>33.20826</v>
+        <v>47.07526</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>921.25211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>493.76794</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>330.511</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>400088.2184600001</v>
+        <v>431416.98202</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>392853.96748</v>
+        <v>435678.47371</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>433451.54114</v>
+        <v>484156.88282</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>417857.20288</v>
+        <v>470350.2904</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>374607.51865</v>
+        <v>431834.6994</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>372768.99932</v>
+        <v>456586.01312</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>372322.37445</v>
+        <v>467962.32812</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>378643.36466</v>
+        <v>485394.32852</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>375890.22639</v>
+        <v>482331.86351</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1072645.82434</v>
+        <v>1238736.4527</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1007534.54337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1288999.05212</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1443856.253</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>336717.70848</v>
+        <v>363695.50291</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>327492.08202</v>
+        <v>363114.76234</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>365062.01701</v>
+        <v>409786.13924</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>350273.93572</v>
+        <v>394092.37273</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>315021.12273</v>
+        <v>359562.77223</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>311611.7497</v>
+        <v>380235.10074</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>320783.57599</v>
+        <v>399204.18632</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>320547.25689</v>
+        <v>407057.78466</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>318445.34254</v>
+        <v>404783.19326</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>928999.3156</v>
+        <v>1067641.20932</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>857685.7340000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1095714.51863</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1237258.95</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>162591.26602</v>
+        <v>175625.33643</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>158213.12355</v>
+        <v>177867.30216</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>165691.58473</v>
+        <v>189212.47738</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>165382.54144</v>
+        <v>190604.39456</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>133716.78971</v>
+        <v>162671.23226</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>143558.42304</v>
+        <v>189671.37505</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>156367.32094</v>
+        <v>208123.86982</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>153432.09755</v>
+        <v>211514.67782</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>156440.84818</v>
+        <v>208355.67366</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>488665.93844</v>
+        <v>557121.43996</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>452883.87013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>579163.0946900001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>638975.1850000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>159942.73864</v>
+        <v>172330.29524</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>152716.87314</v>
+        <v>166679.1659</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>173830.71336</v>
+        <v>192545.48686</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>160987.62176</v>
+        <v>177511.6958</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>162344.38559</v>
+        <v>176915.38235</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>138430.58366</v>
+        <v>159369.21351</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>146750.83188</v>
+        <v>169097.23019</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>150928.37785</v>
+        <v>175087.69994</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>144905.63339</v>
+        <v>172112.9891</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>396269.12952</v>
+        <v>454094.78584</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>357521.02788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>456889.55793</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>526789.9889999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>13722.1312</v>
+        <v>15247.51635</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>15206.22452</v>
+        <v>17014.28876</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>25086.98509</v>
+        <v>27350.28456</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>23231.18035</v>
+        <v>25189.6033</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>18113.1571</v>
+        <v>19022.81017</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>28641.35197</v>
+        <v>29990.22485</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>16029.454</v>
+        <v>20132.08206</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>15526.35594</v>
+        <v>19304.28615</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>16006.59992</v>
+        <v>22584.20126</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>40660.25788</v>
+        <v>52236.64648</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>42417.33478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>52968.40161</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>64463.206</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>461.57262</v>
+        <v>492.35489</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1355.86081</v>
+        <v>1554.00552</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>452.73383</v>
+        <v>677.89044</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>672.59217</v>
+        <v>786.6790699999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>846.7903299999999</v>
+        <v>953.34745</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>981.39103</v>
+        <v>1204.28733</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1635.96917</v>
+        <v>1851.00425</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>660.42555</v>
+        <v>1151.12075</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1092.26105</v>
+        <v>1730.32924</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3403.98976</v>
+        <v>4188.33704</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4863.50121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6693.464400000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>7030.57</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>63370.50998</v>
+        <v>67721.47911</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>65361.88546</v>
+        <v>72563.71137</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>68389.52412999999</v>
+        <v>74370.74357999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>67583.26716</v>
+        <v>76257.91767</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>59586.39592</v>
+        <v>72271.92717</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>61157.24962</v>
+        <v>76350.91237999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>51538.79846</v>
+        <v>68758.1418</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>58096.10777</v>
+        <v>78336.54386000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>57444.88385</v>
+        <v>77548.67025</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>143646.50874</v>
+        <v>171095.24338</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>149848.80937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>193284.53349</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>206597.303</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>53489.56219</v>
+        <v>61405.64745999999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>55027.55394</v>
+        <v>63584.69456</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>59118.39026000001</v>
+        <v>69565.92449999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>57764.25116</v>
+        <v>68348.82425999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>50995.19964</v>
+        <v>64571.29367</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>55259.27336</v>
+        <v>73335.92406</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>48160.35225</v>
+        <v>70018.74077</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>54380.75072</v>
+        <v>76931.84645</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>51595.40917</v>
+        <v>75719.49084</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>118292.42183</v>
+        <v>139783.56409</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>125878.4137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>173401.61941</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>189996.438</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>63.16314999999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>77.15702</v>
+        <v>81.97482000000001</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>112.19155</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>196.42406</v>
+        <v>227.82006</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>139.88516</v>
+        <v>142.75446</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>6.482</v>
@@ -1598,214 +1584,244 @@
         <v>12.38269</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>204.75116</v>
+        <v>282.74925</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>126.98484</v>
+        <v>141.58719</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>351.86433</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>56.157</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>7820.60784</v>
+        <v>8877.50159</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>9397.363429999999</v>
+        <v>11447.06094</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>9561.54119</v>
+        <v>11209.44324</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>9348.039439999999</v>
+        <v>11080.73134</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8470.159710000002</v>
+        <v>9682.76247</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>8999.499690000001</v>
+        <v>11183.63549</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>6606.79563</v>
+        <v>9869.071189999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6986.84172</v>
+        <v>10153.40646</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>7518.465490000001</v>
+        <v>10287.47448</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>21866.64765</v>
+        <v>24800.77894</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>22612.49872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>28564.99162</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>31079.16</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>45605.7912</v>
+        <v>52464.98272</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>45553.03349</v>
+        <v>52055.6588</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>49444.65751999999</v>
+        <v>58244.28971</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>48219.78766</v>
+        <v>57040.27286</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>42385.15477</v>
+        <v>54745.77673999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>46253.29167</v>
+        <v>62145.80657</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>41502.20862</v>
+        <v>60098.32158</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>47381.52631</v>
+        <v>66766.0573</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>43872.19252</v>
+        <v>65149.26711</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>96298.78934</v>
+        <v>114841.19796</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>102914.05065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>144484.76346</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>158861.121</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>9880.947789999998</v>
+        <v>6315.83165</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>10334.33152</v>
+        <v>8979.016810000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>9271.133870000001</v>
+        <v>4804.81908</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>9819.016</v>
+        <v>7909.09341</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>8591.196280000002</v>
+        <v>7700.6335</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5897.976259999999</v>
+        <v>3014.98832</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3378.44621</v>
+        <v>-1260.59897</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3715.35705</v>
+        <v>1404.69741</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5849.474679999999</v>
+        <v>1829.17941</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>25354.08691</v>
+        <v>31311.67929</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>23970.39567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>19882.91408</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>16600.865</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1709.83983</v>
+        <v>6429.039330000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1156.24665</v>
+        <v>4409.32158</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1845.81691</v>
+        <v>18456.95362</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2459.49834</v>
+        <v>10728.79253</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1153.41944</v>
+        <v>17413.79806</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1140.4458</v>
+        <v>21334.46554</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1571.32849</v>
+        <v>54877.95129</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3805.08963</v>
+        <v>56956.858</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1881.80649</v>
+        <v>139196.14755</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11864.3878</v>
+        <v>519736.07195</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6861.619070000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>382851.3363</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>554614.056</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4.68248</v>
+        <v>6.86001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>24.98181</v>
+        <v>29.22701</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>48.65071</v>
+        <v>72.74525</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>29.66475</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>105.50638</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>39.86309</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>94.74619</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>15.71412</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>31.26177</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>13325.57523</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>28013.184</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>1672.75</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
@@ -1840,65 +1856,75 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>141.09177</v>
+        <v>963.61275</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>49.97355</v>
+        <v>352.47993</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>131.43242</v>
+        <v>1697.43638</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>177.75306</v>
+        <v>6558.27653</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>89.38807</v>
+        <v>2579.97621</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>126.84111</v>
+        <v>3126.82677</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>96.40925999999999</v>
+        <v>5348.24559</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>323.55094</v>
+        <v>5547.35597</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>196.23959</v>
+        <v>3575.47943</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>602.9090600000001</v>
+        <v>2381.24306</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>587.4812800000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9402.21991</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2104.328</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>5.311649999999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>9.211780000000001</v>
+        <v>9.477459999999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1.47767</v>
+        <v>8.139200000000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>0</v>
+        <v>0.02815</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1.10696</v>
+        <v>13.52252</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>0</v>
@@ -1913,25 +1939,30 @@
         <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>11.53507</v>
+        <v>13.63607</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>67.61153999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>68.23729999999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>28.499</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>25.63098</v>
+        <v>40.48716</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>84.12043</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>31.33332</v>
+        <v>67.23867</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>16.15</v>
@@ -1940,16 +1971,16 @@
         <v>16.15</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>45.45</v>
+        <v>55.45001</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>16.15</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>87.13699000000001</v>
+        <v>162.23256</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>68.11102000000001</v>
+        <v>68.19998</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>535.6400699999999</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>30.6033</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>50.65</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>34.30082</v>
+        <v>35.68626</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>6.211</v>
+        <v>10.85346</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>21.45898</v>
+        <v>10859.25684</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>20.90088</v>
+        <v>31.52794</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3.69743</v>
+        <v>8.380850000000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>10.64272</v>
+        <v>422.9014</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5.631060000000001</v>
+        <v>145.37395</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3.82602</v>
+        <v>81.58376000000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>21.10203</v>
+        <v>26.77914</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>103.03149</v>
+        <v>107.01607</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>28.64943</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>29.3414</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>5493.955</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>631.38873</v>
+        <v>1537.40745</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>277.96937</v>
+        <v>1048.8413</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>577.97721</v>
+        <v>1785.00612</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>364.6350699999999</v>
+        <v>589.79336</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>246.39128</v>
+        <v>12078.85662</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>135.36266</v>
+        <v>11717.77298</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>172.29525</v>
+        <v>35853.07751</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>288.2379100000001</v>
+        <v>45940.04661</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>627.9928199999999</v>
+        <v>129748.47805</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4584.489350000001</v>
+        <v>506233.44431</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2123.32908</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>348695.81453</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>507856.412</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2069,16 +2115,21 @@
         <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>0</v>
+        <v>662.67551</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>876.42876</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>100.071</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>12.4786</v>
@@ -2087,7 +2138,7 @@
         <v>13.761</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>0</v>
+        <v>0.17176</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>77.79151999999999</v>
@@ -2113,140 +2164,160 @@
       <c r="M34" s="48" t="n">
         <v>2.4371</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>854.9548</v>
+        <v>3827.19545</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>690.0177100000001</v>
+        <v>2860.56099</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1075.68136</v>
+        <v>4032.3737</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1753.6171</v>
+        <v>3382.47978</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>777.78036</v>
+        <v>2668.34177</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>808.6541399999999</v>
+        <v>4219.76283</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1280.84292</v>
+        <v>13475.24115</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3102.33707</v>
+        <v>5130.89221</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>968.36103</v>
+        <v>5761.49683</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6026.78276</v>
+        <v>9771.15509</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4021.50734</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10420.67877</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>10966.957</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1230.81817</v>
+        <v>2559.14808</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>698.64386</v>
+        <v>1400.94595</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1607.9818</v>
+        <v>4143.95354</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1327.65891</v>
+        <v>2353.77004</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>452.38236</v>
+        <v>4452.38305</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>520.5675799999999</v>
+        <v>12417.59867</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>685.06587</v>
+        <v>43118.59904000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1363.4421</v>
+        <v>47383.57133</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1639.31056</v>
+        <v>135293.80839</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4171.46296</v>
+        <v>502123.04634</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3229.3155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>349591.64624</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>510100.948</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>98.17125</v>
+        <v>112.36194</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>56.24939</v>
+        <v>70.64017999999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>80.65507000000001</v>
+        <v>101.46229</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>51.64117</v>
+        <v>73.42009</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>13.36401</v>
+        <v>20.10905</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>47.14253</v>
+        <v>47.90375</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>12.58514</v>
+        <v>21.10687</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>68.67386999999999</v>
+        <v>163.5391</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>86.01482</v>
+        <v>125.93097</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>338.77566</v>
+        <v>383.39452</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>176.99072</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>261.596</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>369.679</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>116.2604</v>
+        <v>170.71737</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>74.77429999999998</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>276.61231</v>
+        <v>292.51389</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>346.45712</v>
+        <v>365.82291</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>15.80403</v>
@@ -2258,7 +2329,7 @@
         <v>46.73833999999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>647.9952</v>
+        <v>654.4258299999999</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>604.41398</v>
@@ -2269,35 +2340,40 @@
       <c r="M38" s="48" t="n">
         <v>595.05483</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>740.0700000000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>19.92768</v>
+        <v>38.28441</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0.00225</v>
+        <v>7.29007</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>4.453939999999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>13.67352</v>
+        <v>23.14417</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>8.788170000000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>22.59496</v>
+        <v>44.82496</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>130.86184</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>138.3</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0.32212</v>
@@ -2308,59 +2384,69 @@
       <c r="M39" s="48" t="n">
         <v>5.0987</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>513.9042000000001</v>
+        <v>1424.49082</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>199.69978</v>
+        <v>761.56173</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>794.03977</v>
+        <v>1993.38313</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>239.2874</v>
+        <v>1072.64984</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>140.9592</v>
+        <v>4080.25346</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>82.26723999999999</v>
+        <v>11851.56396</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>247.24716</v>
+        <v>42285.81355</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>273.75234</v>
+        <v>45802.90274</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>295.17511</v>
+        <v>132972.82101</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2673.45625</v>
+        <v>498814.47776</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1579.47824</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>347387.94771</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>505627.05</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>12.7045</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>7.994050000000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>13.17659</v>
+        <v>17.53128</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>10.72534</v>
@@ -2381,16 +2467,21 @@
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>20.74913</v>
+        <v>1658.37163</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2.209</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.00032</v>
@@ -2425,272 +2516,307 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>469.84982</v>
+        <v>800.58872</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>367.91814</v>
+        <v>478.68562</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>439.04409</v>
+        <v>1734.60898</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>661.3239299999999</v>
+        <v>803.45726</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>250.19194</v>
+        <v>304.15333</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>128.61833</v>
+        <v>233.36148</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>358.2407</v>
+        <v>613.8239100000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>373.0206899999999</v>
+        <v>624.4036600000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>653.38453</v>
+        <v>1590.32031</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>724.60954</v>
+        <v>852.9300500000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>872.69301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1341.949</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3361.94</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3777.04291</v>
+        <v>4823.57498</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3070.55883</v>
+        <v>3984.86098</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3136.36699</v>
+        <v>5930.42209</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3236.33865</v>
+        <v>4837.14858</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2323.61107</v>
+        <v>5128.47783</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2413.96251</v>
+        <v>6417.584700000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2196.22223</v>
+        <v>9129.14906</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2572.53084</v>
+        <v>10259.10425</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1920.67111</v>
+        <v>9744.899009999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>10070.80116</v>
+        <v>14887.31953</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>11162.54929</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>23564.89758</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>18729.234</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3558.41565</v>
+        <v>4471.15871</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2921.01422</v>
+        <v>3769.91251</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2927.49141</v>
+        <v>5138.91281</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>3179.84689</v>
+        <v>4734.73988</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2188.19755</v>
+        <v>4733.029890000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2354.09582</v>
+        <v>6265.677900000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2116.89424</v>
+        <v>8903.772070000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2446.27353</v>
+        <v>10014.37043</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1911.80805</v>
+        <v>9610.57891</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9758.560870000001</v>
+        <v>14310.69791</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>10465.27777</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>21995.48067</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>17919.244</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>218.62726</v>
+        <v>352.41627</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>149.54461</v>
+        <v>214.94847</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>208.87558</v>
+        <v>791.50928</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>56.49176</v>
+        <v>102.4087</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>135.41352</v>
+        <v>395.44794</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>59.86669000000001</v>
+        <v>151.9068</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>79.32798999999999</v>
+        <v>225.37699</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>126.25731</v>
+        <v>244.73382</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>8.863059999999999</v>
+        <v>134.3201</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>312.24029</v>
+        <v>576.62162</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>697.27152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1569.41691</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>809.99</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6582.92654</v>
+        <v>5362.14792</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>7721.375480000001</v>
+        <v>8002.53146</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6372.60199</v>
+        <v>13187.39707</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7714.516779999999</v>
+        <v>11446.96732</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6968.62229</v>
+        <v>15533.57068</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4103.89197</v>
+        <v>5514.27049</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2068.4866</v>
+        <v>1369.60422</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3584.47374</v>
+        <v>718.8798300000003</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4171.2995</v>
+        <v>-4013.38044</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>22976.21059</v>
+        <v>34037.38537</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>16440.14995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>29577.70656</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>42384.739</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1969.47832</v>
+        <v>2840.38079</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1921.22672</v>
+        <v>2517.23466</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2565.72108</v>
+        <v>5382.385270000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1427.96731</v>
+        <v>8479.188749999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1473.80714</v>
+        <v>2285.22464</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2491.26085</v>
+        <v>9569.15717</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1380.81479</v>
+        <v>27366.08869</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1948.80986</v>
+        <v>12123.05722</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2193.48325</v>
+        <v>7092.754059999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4138.00237</v>
+        <v>10311.11912</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5696.843879999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>12213.71387</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>53016.518</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>81.14066</v>
+        <v>81.53666</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0.06249</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>28.11148</v>
+        <v>142.30064</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>12.21324</v>
+        <v>36.03823999999999</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>3.10935</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>101.54092</v>
+        <v>189.60217</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>19.60648</v>
+        <v>408.41138</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1.40301</v>
+        <v>83.80301</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>422.3107</v>
+        <v>478.29138</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>11.88665</v>
@@ -2698,320 +2824,363 @@
       <c r="M49" s="48" t="n">
         <v>121.31369</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>461.498</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1888.33766</v>
+        <v>2758.84413</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1921.16423</v>
+        <v>2517.17217</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2537.6096</v>
+        <v>5240.08463</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1415.75407</v>
+        <v>8443.150509999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1470.69779</v>
+        <v>2282.11529</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2389.71993</v>
+        <v>9379.555</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1361.20831</v>
+        <v>26957.67731</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1947.40685</v>
+        <v>12039.25421</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1771.17255</v>
+        <v>6614.46268</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4126.11572</v>
+        <v>10299.23247</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5575.530189999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>12092.40018</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>52555.02</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2240.8502</v>
+        <v>3162.44345</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2520.56456</v>
+        <v>4442.21333</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>11908.91755</v>
+        <v>16358.23648</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2915.47332</v>
+        <v>8630.63096</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2489.71915</v>
+        <v>4073.34759</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5651.78196</v>
+        <v>9966.31827</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1841.38832</v>
+        <v>4809.672</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5191.437</v>
+        <v>8561.61465</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3266.38184</v>
+        <v>6613.57913</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>10638.59302</v>
+        <v>17471.2028</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4695.17317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>8786.54286</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>28579.066</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>121.42165</v>
+        <v>532.3389599999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>106.85161</v>
+        <v>125.49419</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>90.56348</v>
+        <v>473.6594</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>89.78713</v>
+        <v>200.31241</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>103.00204</v>
+        <v>186.12548</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>73.28586999999999</v>
+        <v>522.74143</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>87.39662</v>
+        <v>87.48108000000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>27.32801</v>
+        <v>87.45644</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>35.38654</v>
+        <v>35.39061</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>487.78559</v>
+        <v>495.33701</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>409.25591</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>590.92182</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>373.638</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>124.4574</v>
+        <v>128.98073</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>159.22248</v>
+        <v>255.36032</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>671.2986099999999</v>
+        <v>672.56552</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>758.36724</v>
+        <v>758.8734300000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>602.9690299999999</v>
+        <v>615.9626599999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>90.55930000000001</v>
+        <v>93.48554</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>72.93930999999999</v>
+        <v>87.38319</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>136.30686</v>
+        <v>164.84236</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>120.45834</v>
+        <v>132.16904</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>300.1559</v>
+        <v>2348.80253</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>193.72191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>200.33759</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>214.792</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1994.97115</v>
+        <v>2501.12376</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2254.49047</v>
+        <v>4061.35882</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>11147.05546</v>
+        <v>15212.01156</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2067.31895</v>
+        <v>7671.445119999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1783.74808</v>
+        <v>3271.25945</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5487.93679</v>
+        <v>9350.091299999998</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1681.05239</v>
+        <v>4634.80773</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5027.80213</v>
+        <v>8309.315850000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3110.53696</v>
+        <v>6446.01948</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>9850.651530000001</v>
+        <v>14627.06326</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4092.19535</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>7995.283449999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>27990.636</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6311.55466</v>
+        <v>5040.08526</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>7122.03764</v>
+        <v>6077.55279</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2970.59448</v>
+        <v>2211.54586</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6227.01077</v>
+        <v>11295.52511</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5952.71028</v>
+        <v>13745.44773</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>943.37086</v>
+        <v>5117.109390000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1607.91307</v>
+        <v>23926.02091</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>341.8466</v>
+        <v>4280.322400000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3098.40091</v>
+        <v>-3534.20551</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>16475.61994</v>
+        <v>26877.30169</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>17441.82066</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>33004.87757</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>66822.19100000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2176.97095</v>
+        <v>2480.11285</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2257.10065</v>
+        <v>2768.92239</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2413.298389999999</v>
+        <v>5264.12813</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2612.98216</v>
+        <v>3936.61736</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2223.52452</v>
+        <v>2911.38899</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1936.64865</v>
+        <v>3300.66565</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1841.27653</v>
+        <v>5315.62983</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2291.50401</v>
+        <v>3684.78783</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1607.23417</v>
+        <v>2846.73745</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6052.20993</v>
+        <v>9657.901960000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>6691.16769</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>11283.62984</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>12794.383</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4134.58371</v>
+        <v>2559.97241</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4864.93699</v>
+        <v>3308.6304</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-5383.892869999999</v>
+        <v>-3052.58227</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3614.02861</v>
+        <v>7358.90775</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3729.18576</v>
+        <v>10834.05874</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-993.27779</v>
+        <v>1816.44374</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-233.36346</v>
+        <v>18610.39108</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1949.65741</v>
+        <v>595.5345700000003</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1491.16674</v>
+        <v>-6380.942960000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>10423.41001</v>
+        <v>17219.39973</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>10750.65297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>21721.24773</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>54027.808</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1898</v>
+        <v>2000</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1833</v>
+        <v>1963</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1741</v>
+        <v>1882</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1592</v>
+        <v>1747</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1415</v>
+        <v>1587</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1252</v>
+        <v>1481</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1188</v>
+        <v>1448</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1168</v>
+        <v>1465</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1167</v>
+        <v>1484</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1433</v>
+        <v>1800</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1904</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>